--- a/VersionRecords/Version 5.2.1/版本Bug和特性计划及评审表v5.2.1_磐石组.xlsx
+++ b/VersionRecords/Version 5.2.1/版本Bug和特性计划及评审表v5.2.1_磐石组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -314,6 +314,10 @@
   </si>
   <si>
     <t>通过</t>
+  </si>
+  <si>
+    <t>DV-2023</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1408,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S3" sqref="R2:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1556,7 +1560,9 @@
       <c r="Q2" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="77"/>
+      <c r="R2" s="77" t="s">
+        <v>86</v>
+      </c>
       <c r="S2" s="77"/>
       <c r="T2" s="44"/>
       <c r="U2" s="52"/>
@@ -1614,7 +1620,7 @@
         <v>72</v>
       </c>
       <c r="R3" s="77"/>
-      <c r="S3" s="44">
+      <c r="S3" s="77">
         <v>6491</v>
       </c>
       <c r="T3" s="44"/>
@@ -5531,6 +5537,10 @@
       <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S3" r:id="rId1" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=6491"/>
+    <hyperlink ref="R2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
